--- a/data-mining/models/PurchasePricePrediction.xlsx
+++ b/data-mining/models/PurchasePricePrediction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i327636\Desktop\tmp\weka\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-git\data-mining\DataMining\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13498B85-4B39-4741-A312-550C6F0E8D04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B517CFD6-54FB-4D4E-8218-C68C10F978C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{A58F7580-45F0-46A6-9A1C-38B388C5561B}"/>
   </bookViews>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4248C3-12D7-4669-ACAB-4AE7F7FDE02C}">
   <dimension ref="A1:C1373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
+      <selection activeCell="C1099" sqref="C1099:C1373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12481,7 +12481,7 @@
         <v>42826</v>
       </c>
       <c r="C1099">
-        <v>2.33410743154761</v>
+        <v>2.1908149522026101</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
@@ -12489,7 +12489,7 @@
         <v>42827</v>
       </c>
       <c r="C1100">
-        <v>2.2914244047619001</v>
+        <v>2.1908149522026101</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
@@ -12537,7 +12537,7 @@
         <v>42833</v>
       </c>
       <c r="C1106">
-        <v>2.2942759523809499</v>
+        <v>2.3046290476190401</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
         <v>42834</v>
       </c>
       <c r="C1107">
-        <v>2.2495241964285699</v>
+        <v>2.3046290476190401</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
         <v>42840</v>
       </c>
       <c r="C1113">
-        <v>2.27675028869047</v>
+        <v>2.2762448303571401</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
@@ -12601,7 +12601,7 @@
         <v>42841</v>
       </c>
       <c r="C1114">
-        <v>2.22110817261904</v>
+        <v>2.2762448303571401</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
@@ -12649,7 +12649,7 @@
         <v>42847</v>
       </c>
       <c r="C1120">
-        <v>2.25730903953685</v>
+        <v>2.2604618403610202</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,7 +12657,7 @@
         <v>42848</v>
       </c>
       <c r="C1121">
-        <v>2.18810515957653</v>
+        <v>2.2604618403610202</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
@@ -12705,7 +12705,7 @@
         <v>42854</v>
       </c>
       <c r="C1127">
-        <v>2.2517560876484599</v>
+        <v>2.2542930889110799</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
@@ -12713,7 +12713,7 @@
         <v>42855</v>
       </c>
       <c r="C1128">
-        <v>2.1824992034146402</v>
+        <v>2.2542930889110799</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
@@ -12761,7 +12761,7 @@
         <v>42861</v>
       </c>
       <c r="C1134">
-        <v>2.3198648998015798</v>
+        <v>2.32783644146825</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
@@ -12769,7 +12769,7 @@
         <v>42862</v>
       </c>
       <c r="C1135">
-        <v>2.2728755833333301</v>
+        <v>2.32783644146825</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
@@ -12817,7 +12817,7 @@
         <v>42868</v>
       </c>
       <c r="C1141">
-        <v>2.2871318045634901</v>
+        <v>2.2872335009920599</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
         <v>42869</v>
       </c>
       <c r="C1142">
-        <v>2.2128844226190401</v>
+        <v>2.2872335009920599</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
@@ -12873,7 +12873,7 @@
         <v>42875</v>
       </c>
       <c r="C1148">
-        <v>2.2647778802308798</v>
+        <v>2.2653151302308698</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
         <v>42876</v>
       </c>
       <c r="C1149">
-        <v>2.19349839750388</v>
+        <v>2.2653151302308698</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>42882</v>
       </c>
       <c r="C1155">
-        <v>2.2504228736333101</v>
+        <v>2.2503978736333101</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
@@ -12937,7 +12937,7 @@
         <v>42883</v>
       </c>
       <c r="C1156">
-        <v>2.1819508530899601</v>
+        <v>2.2503978736333101</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
@@ -12985,7 +12985,7 @@
         <v>42889</v>
       </c>
       <c r="C1162">
-        <v>2.3686602648809498</v>
+        <v>2.36626855654761</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
@@ -12993,7 +12993,7 @@
         <v>42890</v>
       </c>
       <c r="C1163">
-        <v>2.32036611309523</v>
+        <v>2.36626855654761</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v>42896</v>
       </c>
       <c r="C1169">
-        <v>2.3414740416666602</v>
+        <v>2.3477119583333299</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
@@ -13049,7 +13049,7 @@
         <v>42897</v>
       </c>
       <c r="C1170">
-        <v>2.25812681547619</v>
+        <v>2.3477119583333299</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>42903</v>
       </c>
       <c r="C1176">
-        <v>2.30232925595238</v>
+        <v>2.3019185416666601</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
@@ -13105,7 +13105,7 @@
         <v>42904</v>
       </c>
       <c r="C1177">
-        <v>2.2175359226190401</v>
+        <v>2.3019185416666601</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
@@ -13153,7 +13153,7 @@
         <v>42910</v>
       </c>
       <c r="C1183">
-        <v>2.23693561232378</v>
+        <v>2.2415182368659101</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
@@ -13161,7 +13161,7 @@
         <v>42911</v>
       </c>
       <c r="C1184">
-        <v>2.1687525268994801</v>
+        <v>2.2415182368659101</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
@@ -13209,7 +13209,7 @@
         <v>42917</v>
       </c>
       <c r="C1190">
-        <v>2.2338794565242699</v>
+        <v>2.2224782612595702</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
@@ -13217,7 +13217,7 @@
         <v>42918</v>
       </c>
       <c r="C1191">
-        <v>2.1669263144607802</v>
+        <v>2.2224782612595702</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
@@ -13265,7 +13265,7 @@
         <v>42924</v>
       </c>
       <c r="C1197">
-        <v>2.22888401669743</v>
+        <v>2.2211841529528402</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
@@ -13273,7 +13273,7 @@
         <v>42925</v>
       </c>
       <c r="C1198">
-        <v>2.1713803448720399</v>
+        <v>2.2211841529528402</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
@@ -13321,7 +13321,7 @@
         <v>42931</v>
       </c>
       <c r="C1204">
-        <v>2.21206279898459</v>
+        <v>2.2192389488402902</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>42932</v>
       </c>
       <c r="C1205">
-        <v>2.1526934753734799</v>
+        <v>2.2192389488402902</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
@@ -13377,7 +13377,7 @@
         <v>42938</v>
       </c>
       <c r="C1211">
-        <v>2.1845223135211902</v>
+        <v>2.17860412185453</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
@@ -13385,7 +13385,7 @@
         <v>42939</v>
       </c>
       <c r="C1212">
-        <v>2.1230919051878598</v>
+        <v>2.17860412185453</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
@@ -13433,7 +13433,7 @@
         <v>42945</v>
       </c>
       <c r="C1218">
-        <v>2.12979026223914</v>
+        <v>2.1316373190573299</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
@@ -13441,7 +13441,7 @@
         <v>42946</v>
       </c>
       <c r="C1219">
-        <v>2.08378995717199</v>
+        <v>2.1316373190573299</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
@@ -13489,7 +13489,7 @@
         <v>42952</v>
       </c>
       <c r="C1225">
-        <v>2.1059902875000001</v>
+        <v>2.0894347648809499</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
@@ -13497,7 +13497,7 @@
         <v>42953</v>
       </c>
       <c r="C1226">
-        <v>2.0804367638888901</v>
+        <v>2.0894347648809499</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
@@ -13545,7 +13545,7 @@
         <v>42959</v>
       </c>
       <c r="C1232">
-        <v>2.1379486128413201</v>
+        <v>2.1255517158175099</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
@@ -13553,7 +13553,7 @@
         <v>42960</v>
       </c>
       <c r="C1233">
-        <v>2.1031051722582901</v>
+        <v>2.1255517158175099</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
@@ -13601,7 +13601,7 @@
         <v>42966</v>
       </c>
       <c r="C1239">
-        <v>2.14481151522227</v>
+        <v>2.1473383235556098</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
@@ -13609,7 +13609,7 @@
         <v>42967</v>
       </c>
       <c r="C1240">
-        <v>2.0925713837662299</v>
+        <v>2.1473383235556098</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
@@ -13657,7 +13657,7 @@
         <v>42973</v>
       </c>
       <c r="C1246">
-        <v>2.0046669534188002</v>
+        <v>2.0269334498473701</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
@@ -13665,7 +13665,7 @@
         <v>42974</v>
       </c>
       <c r="C1247">
-        <v>1.9992152211857499</v>
+        <v>2.0269334498473701</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
@@ -13713,7 +13713,7 @@
         <v>42980</v>
       </c>
       <c r="C1253">
-        <v>2.04158238110996</v>
+        <v>2.0383451918942699</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.25">
@@ -13721,7 +13721,7 @@
         <v>42981</v>
       </c>
       <c r="C1254">
-        <v>2.0085086274822301</v>
+        <v>2.0383451918942699</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
@@ -13769,7 +13769,7 @@
         <v>42987</v>
       </c>
       <c r="C1260">
-        <v>2.0547822234612401</v>
+        <v>2.0549643067945702</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
@@ -13777,7 +13777,7 @@
         <v>42988</v>
       </c>
       <c r="C1261">
-        <v>2.0316575312595901</v>
+        <v>2.0549643067945702</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.25">
@@ -13825,7 +13825,7 @@
         <v>42994</v>
       </c>
       <c r="C1267">
-        <v>2.0573631093739402</v>
+        <v>2.0555975802072699</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.25">
@@ -13833,7 +13833,7 @@
         <v>42995</v>
       </c>
       <c r="C1268">
-        <v>2.04650538054364</v>
+        <v>2.0555975802072699</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.25">
@@ -13881,7 +13881,7 @@
         <v>43001</v>
       </c>
       <c r="C1274">
-        <v>2.0508404531447102</v>
+        <v>2.0594010227175401</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.25">
@@ -13889,7 +13889,7 @@
         <v>43002</v>
       </c>
       <c r="C1275">
-        <v>2.0159193429798101</v>
+        <v>2.0594010227175401</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.25">
@@ -13937,7 +13937,7 @@
         <v>43008</v>
       </c>
       <c r="C1281">
-        <v>2.0472154146602799</v>
+        <v>2.0489421416444098</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.25">
@@ -13945,7 +13945,7 @@
         <v>43009</v>
       </c>
       <c r="C1282">
-        <v>2.00887326375915</v>
+        <v>2.0489421416444098</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>43015</v>
       </c>
       <c r="C1288">
-        <v>2.0325593311889398</v>
+        <v>2.03152474785561</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.25">
@@ -14001,7 +14001,7 @@
         <v>43016</v>
       </c>
       <c r="C1289">
-        <v>2.0373100557844901</v>
+        <v>2.03152474785561</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.25">
@@ -14049,7 +14049,7 @@
         <v>43022</v>
       </c>
       <c r="C1295">
-        <v>2.1009988407647899</v>
+        <v>2.1049074518759001</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.25">
@@ -14057,7 +14057,7 @@
         <v>43023</v>
       </c>
       <c r="C1296">
-        <v>2.05768328472222</v>
+        <v>2.1049074518759001</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.25">
@@ -14105,7 +14105,7 @@
         <v>43029</v>
       </c>
       <c r="C1302">
-        <v>2.1060505343406501</v>
+        <v>2.10934497902791</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.25">
@@ -14113,7 +14113,7 @@
         <v>43030</v>
       </c>
       <c r="C1303">
-        <v>2.0484657438048002</v>
+        <v>2.10934497902791</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.25">
@@ -14161,7 +14161,7 @@
         <v>43036</v>
       </c>
       <c r="C1309">
-        <v>2.0752576686799298</v>
+        <v>2.08106307568542</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.25">
@@ -14169,7 +14169,7 @@
         <v>43037</v>
       </c>
       <c r="C1310">
-        <v>2.0624440967088402</v>
+        <v>2.08106307568542</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.25">
@@ -14217,7 +14217,7 @@
         <v>43043</v>
       </c>
       <c r="C1316">
-        <v>2.0941994352869302</v>
+        <v>2.0926778991758201</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.25">
@@ -14225,7 +14225,7 @@
         <v>43044</v>
       </c>
       <c r="C1317">
-        <v>2.0508113122294298</v>
+        <v>2.0926778991758201</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
@@ -14273,7 +14273,7 @@
         <v>43050</v>
       </c>
       <c r="C1323">
-        <v>2.07179464880952</v>
+        <v>2.06988381547619</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
@@ -14281,7 +14281,7 @@
         <v>43051</v>
       </c>
       <c r="C1324">
-        <v>2.0350503047022399</v>
+        <v>2.06988381547619</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
@@ -14329,7 +14329,7 @@
         <v>43057</v>
       </c>
       <c r="C1330">
-        <v>2.0747828581349101</v>
+        <v>2.0743411636904701</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
@@ -14337,7 +14337,7 @@
         <v>43058</v>
       </c>
       <c r="C1331">
-        <v>2.0418533015289402</v>
+        <v>2.0743411636904701</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
@@ -14385,7 +14385,7 @@
         <v>43064</v>
       </c>
       <c r="C1337">
-        <v>2.0387224294649702</v>
+        <v>2.0384256069541502</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>43065</v>
       </c>
       <c r="C1338">
-        <v>2.0562140976425498</v>
+        <v>2.0384256069541502</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
@@ -14441,7 +14441,7 @@
         <v>43071</v>
       </c>
       <c r="C1344">
-        <v>2.0738493617826599</v>
+        <v>2.0569895344017</v>
       </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
@@ -14449,7 +14449,7 @@
         <v>43072</v>
       </c>
       <c r="C1345">
-        <v>2.0469959420634898</v>
+        <v>2.0569895344017</v>
       </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
@@ -14497,7 +14497,7 @@
         <v>43078</v>
       </c>
       <c r="C1351">
-        <v>2.0948912731227098</v>
+        <v>2.0894635201465199</v>
       </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
@@ -14505,7 +14505,7 @@
         <v>43079</v>
       </c>
       <c r="C1352">
-        <v>2.0659511301892501</v>
+        <v>2.0894635201465199</v>
       </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
@@ -14553,7 +14553,7 @@
         <v>43085</v>
       </c>
       <c r="C1358">
-        <v>2.0775199457417499</v>
+        <v>2.0806464338369901</v>
       </c>
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
@@ -14561,7 +14561,7 @@
         <v>43086</v>
       </c>
       <c r="C1359">
-        <v>2.0428735237511599</v>
+        <v>2.0806464338369901</v>
       </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
@@ -14609,7 +14609,7 @@
         <v>43092</v>
       </c>
       <c r="C1365">
-        <v>2.0324908925060998</v>
+        <v>2.0453601329822901</v>
       </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
@@ -14617,7 +14617,7 @@
         <v>43093</v>
       </c>
       <c r="C1366">
-        <v>2.0286451705682298</v>
+        <v>2.0453601329822901</v>
       </c>
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
@@ -14665,7 +14665,7 @@
         <v>43099</v>
       </c>
       <c r="C1372">
-        <v>2.0641522118561899</v>
+        <v>2.0640596451895301</v>
       </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
@@ -14673,7 +14673,7 @@
         <v>43100</v>
       </c>
       <c r="C1373">
-        <v>2.0524060736887302</v>
+        <v>2.0640596451895301</v>
       </c>
     </row>
   </sheetData>
